--- a/evaluation/case-study/data.xlsx
+++ b/evaluation/case-study/data.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/evaluation/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978659B4-F622-4644-AA47-8C96379B3185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0999FB7-BF6B-D241-A247-DCBD59A01012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1260" windowWidth="38240" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1260" windowWidth="42500" windowHeight="21500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrams" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -182,14 +194,61 @@
   </si>
   <si>
     <t>Add a beginners guide or documentation.</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>ER2CDS</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>Business experts</t>
+  </si>
+  <si>
+    <t>CDS Textual Syntax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,9 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,6 +365,3398 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ER2CS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66AE-5540-8FD6-A687FDC539C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66AE-5540-8FD6-A687FDC539C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66AE-5540-8FD6-A687FDC539C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-66AE-5540-8FD6-A687FDC539C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-66AE-5540-8FD6-A687FDC539C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1698226783"/>
+        <c:axId val="1503608447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1698226783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503608447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503608447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698226783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CDS </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Textual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Syntax </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B6-1A45-9CF0-CB4578750378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B6-1A45-9CF0-CB4578750378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3B6-1A45-9CF0-CB4578750378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E3B6-1A45-9CF0-CB4578750378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E3B6-1A45-9CF0-CB4578750378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1509819359"/>
+        <c:axId val="1509821071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1509819359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509821071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1509821071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509819359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Preference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Developer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$44:$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ER2CDS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CDS Textual Syntax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$45:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF30-8043-B876-E2F91E7E9EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business experts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$B$44:$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ER2CDS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CDS Textual Syntax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$46:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF30-8043-B876-E2F91E7E9EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1699774799"/>
+        <c:axId val="1717251327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1699774799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717251327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1717251327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1699774799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5419CAA7-14BC-2444-A36B-A6F969927C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE37B53D-A2D5-764F-B08B-8E21E58714E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90F4F57-AC7F-FDF4-E7D1-13F7E8AFFB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,7 +4175,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -794,7 +4246,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -865,7 +4317,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -936,7 +4388,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1007,7 +4459,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -1078,7 +4530,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1149,7 +4601,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1220,7 +4672,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1288,6 +4740,22 @@
       <c r="W9" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V15" s="1"/>
+    </row>
+    <row r="18" spans="21:23" x14ac:dyDescent="0.2">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="21:23" x14ac:dyDescent="0.2">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="21:23" x14ac:dyDescent="0.2">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,4 +4764,313 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E619BB3C-C469-A841-A0C5-3B3224FEAABA}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>(LEFT(Data!J2,1)-1) + (5-LEFT(Data!K2,1)) + (LEFT(Data!L2,1)-1) + (5-LEFT(Data!M2,1)) + (LEFT(Data!N2,1)-1) + (5-LEFT(Data!O2,1)) + (LEFT(Data!P2,1)-1) + (5-LEFT(Data!Q2,1)) + (LEFT(Data!R2,1)-1) + (5-LEFT(Data!S2,1))</f>
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <f>A33*2.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>(LEFT(Data!J3,1)-1) + (5-LEFT(Data!K3,1)) + (LEFT(Data!L3,1)-1) + (5-LEFT(Data!M3,1)) + (LEFT(Data!N3,1)-1) + (5-LEFT(Data!O3,1)) + (LEFT(Data!P3,1)-1) + (5-LEFT(Data!Q3,1)) + (LEFT(Data!R3,1)-1) + (5-LEFT(Data!S3,1))</f>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>A34*2.5</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>(LEFT(Data!J4,1)-1) + (5-LEFT(Data!K4,1)) + (LEFT(Data!L4,1)-1) + (5-LEFT(Data!M4,1)) + (LEFT(Data!N4,1)-1) + (5-LEFT(Data!O4,1)) + (LEFT(Data!P4,1)-1) + (5-LEFT(Data!Q4,1)) + (LEFT(Data!R4,1)-1) + (5-LEFT(Data!S4,1))</f>
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <f>A35*2.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>(LEFT(Data!J5,1)-1) + (5-LEFT(Data!K5,1)) + (LEFT(Data!L5,1)-1) + (5-LEFT(Data!M5,1)) + (LEFT(Data!N5,1)-1) + (5-LEFT(Data!O5,1)) + (LEFT(Data!P5,1)-1) + (5-LEFT(Data!Q5,1)) + (LEFT(Data!R5,1)-1) + (5-LEFT(Data!S5,1))</f>
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <f>A36*2.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>(LEFT(Data!J6,1)-1) + (5-LEFT(Data!K6,1)) + (LEFT(Data!L6,1)-1) + (5-LEFT(Data!M6,1)) + (LEFT(Data!N6,1)-1) + (5-LEFT(Data!O6,1)) + (LEFT(Data!P6,1)-1) + (5-LEFT(Data!Q6,1)) + (LEFT(Data!R6,1)-1) + (5-LEFT(Data!S6,1))</f>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f>A37*2.5</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>(LEFT(Data!J7,1)-1) + (5-LEFT(Data!K7,1)) + (LEFT(Data!L7,1)-1) + (5-LEFT(Data!M7,1)) + (LEFT(Data!N7,1)-1) + (5-LEFT(Data!O7,1)) + (LEFT(Data!P7,1)-1) + (5-LEFT(Data!Q7,1)) + (LEFT(Data!R7,1)-1) + (5-LEFT(Data!S7,1))</f>
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <f>A38*2.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>(LEFT(Data!J8,1)-1) + (5-LEFT(Data!K8,1)) + (LEFT(Data!L8,1)-1) + (5-LEFT(Data!M8,1)) + (LEFT(Data!N8,1)-1) + (5-LEFT(Data!O8,1)) + (LEFT(Data!P8,1)-1) + (5-LEFT(Data!Q8,1)) + (LEFT(Data!R8,1)-1) + (5-LEFT(Data!S8,1))</f>
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <f>A39*2.5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>(LEFT(Data!J9,1)-1) + (5-LEFT(Data!K9,1)) + (LEFT(Data!L9,1)-1) + (5-LEFT(Data!M9,1)) + (LEFT(Data!N9,1)-1) + (5-LEFT(Data!O9,1)) + (LEFT(Data!P9,1)-1) + (5-LEFT(Data!Q9,1)) + (LEFT(Data!R9,1)-1) + (5-LEFT(Data!S9,1))</f>
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <f>A40*2.5</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f>SUM(B33:B40) / 8</f>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/evaluation/case-study/data.xlsx
+++ b/evaluation/case-study/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/evaluation/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/ER2CDS/evaluation/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0999FB7-BF6B-D241-A247-DCBD59A01012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFD3B7-8E8F-8048-B463-61A3569E9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1260" windowWidth="42500" windowHeight="21500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1260" windowWidth="42500" windowHeight="21500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>Business experts</t>
-  </si>
-  <si>
-    <t>CDS Textual Syntax</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1719,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ER2CDS</c:v>
+                  <c:v>Yes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CDS Textual Syntax</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,10 +1778,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ER2CDS</c:v>
+                  <c:v>Yes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CDS Textual Syntax</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4090,7 +4087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -4770,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E619BB3C-C469-A841-A0C5-3B3224FEAABA}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4959,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <f>A33*2.5</f>
+        <f t="shared" ref="B33:B40" si="0">A33*2.5</f>
         <v>95</v>
       </c>
     </row>
@@ -4969,7 +4966,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>A34*2.5</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
     </row>
@@ -4979,7 +4976,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <f>A35*2.5</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -4989,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <f>A36*2.5</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -4999,7 +4996,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f>A37*2.5</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
     </row>
@@ -5009,7 +5006,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <f>A38*2.5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -5019,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="B39">
-        <f>A39*2.5</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -5029,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="B40">
-        <f>A40*2.5</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -5041,10 +5038,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
